--- a/app/templates/report/facturas.xlsx
+++ b/app/templates/report/facturas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\templates\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71537545-A405-404C-9D6A-D44629F1EFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4660751-7BC2-455E-B869-FA461D775A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -200,7 +200,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -233,6 +233,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -696,7 +697,7 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="2">
         <f>IF(O2=0,0,IF(O2=21,1,3))</f>
         <v>0</v>

--- a/app/templates/report/facturas.xlsx
+++ b/app/templates/report/facturas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4660751-7BC2-455E-B869-FA461D775A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375DD7DC-50CE-4B5F-80E3-58636D37D848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -699,7 +699,7 @@
       <c r="B3" s="2"/>
       <c r="C3" s="16"/>
       <c r="D3" s="2">
-        <f>IF(O2=0,0,IF(O2=21,1,3))</f>
+        <f>IF(O3=0,0,IF(O3=21,1,3))</f>
         <v>0</v>
       </c>
       <c r="E3" s="2"/>
